--- a/config_2.23/game_activity_config.xlsx
+++ b/config_2.23/game_activity_config.xlsx
@@ -1033,10 +1033,10 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O29" sqref="O29"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2088,7 +2088,7 @@
         <v>67</v>
       </c>
       <c r="F24" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="37">
         <v>1</v>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="37">
         <v>1</v>
@@ -2176,7 +2176,7 @@
         <v>99</v>
       </c>
       <c r="F26" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" s="37">
         <v>1</v>
@@ -2223,7 +2223,7 @@
         <v>101</v>
       </c>
       <c r="F27" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" s="37">
         <v>1</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G28" s="37">
         <v>1</v>
@@ -2306,19 +2306,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2326,56 +2317,65 @@
 </settings>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="2"/>
   <pixelatorList sheetStid="3"/>
 </pixelators>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>